--- a/data/trans_orig/P1497-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1497-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16A193B-7105-426C-863B-C04C9385C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99C186A-674B-46B8-9B0A-6D79D156CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0079E38-B813-4EA9-A6C1-2AE22B4958E1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90A06504-3B09-4390-9855-D6F240BB66B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -334,46 +334,52 @@
     <t>Población con diagnóstico de otra enfermedad 1 en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>10,31%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>89,69%</t>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>4,66%</t>
@@ -382,28 +388,31 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>7,25%</t>
+    <t>7,22%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>92,75%</t>
+    <t>92,78%</t>
   </si>
   <si>
     <t>97,36%</t>
@@ -412,22 +421,28 @@
     <t>93,88%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>95,97%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>8,31%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>6,34%</t>
@@ -436,28 +451,28 @@
     <t>4,79%</t>
   </si>
   <si>
-    <t>8,18%</t>
+    <t>8,27%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>91,69%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,82%</t>
+    <t>91,73%</t>
   </si>
   <si>
     <t>95,21%</t>
@@ -466,226 +481,211 @@
     <t>93,86%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>10,61%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>89,39%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE5D447-0F79-4B25-8E3B-F235319790E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FE260D-3140-4F26-86D4-FE05E78D62B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2316,7 +2316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B019799-2D63-4B72-A2EC-931F4F35821F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73421FB4-2670-4D7F-96F9-C152CC21204D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3535,7 +3535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0E92BF-3977-4C29-A212-EA93953DFFDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19B0F25-2577-4A0F-9CDC-586B12ADC26F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3677,10 +3677,10 @@
         <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3689,13 +3689,13 @@
         <v>31785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,10 +3713,10 @@
         <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -3725,13 +3725,13 @@
         <v>334315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
         <v>361</v>
@@ -3740,13 +3740,13 @@
         <v>700851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3814,13 @@
         <v>19955</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3829,13 +3829,13 @@
         <v>30500</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -3844,13 +3844,13 @@
         <v>50455</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3865,13 @@
         <v>408441</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>430</v>
@@ -3880,13 +3880,13 @@
         <v>468077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>717</v>
@@ -3895,13 +3895,13 @@
         <v>876518</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3969,13 @@
         <v>32999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3984,13 +3984,13 @@
         <v>36943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -3999,13 +3999,13 @@
         <v>69942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4020,13 @@
         <v>524253</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -4035,13 +4035,13 @@
         <v>545815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>1307</v>
@@ -4050,13 +4050,13 @@
         <v>1070068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4124,13 @@
         <v>60207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -4139,13 +4139,13 @@
         <v>67197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -4154,13 +4154,13 @@
         <v>127404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4175,13 @@
         <v>663075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>1040</v>
@@ -4190,13 +4190,13 @@
         <v>679498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>1646</v>
@@ -4205,13 +4205,13 @@
         <v>1342573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4279,13 @@
         <v>83495</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -4294,13 +4294,13 @@
         <v>68201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -4309,13 +4309,13 @@
         <v>151695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4330,13 @@
         <v>515591</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>891</v>
@@ -4345,13 +4345,13 @@
         <v>525056</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>1468</v>
@@ -4360,13 +4360,13 @@
         <v>1040648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4434,13 @@
         <v>84994</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -4449,13 +4449,13 @@
         <v>157031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
         <v>436</v>
@@ -4464,13 +4464,13 @@
         <v>242026</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4485,13 @@
         <v>611983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>1404</v>
@@ -4500,13 +4500,13 @@
         <v>869447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>2298</v>
@@ -4515,13 +4515,13 @@
         <v>1481429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4589,13 @@
         <v>292793</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>603</v>
@@ -4604,13 +4604,13 @@
         <v>380514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>932</v>
@@ -4619,13 +4619,13 @@
         <v>673307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4640,13 @@
         <v>3089879</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>4753</v>
@@ -4655,7 +4655,7 @@
         <v>3422208</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>211</v>
@@ -4667,7 +4667,7 @@
         <v>7797</v>
       </c>
       <c r="N23" s="7">
-        <v>6512086</v>
+        <v>6512087</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>213</v>
@@ -4718,7 +4718,7 @@
         <v>8729</v>
       </c>
       <c r="N24" s="7">
-        <v>7185393</v>
+        <v>7185394</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/P1497-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1497-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99C186A-674B-46B8-9B0A-6D79D156CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1301BFB1-2FCA-4C8F-B6AB-3EEF7EB1DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90A06504-3B09-4390-9855-D6F240BB66B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF32D548-1690-475F-AFD1-42671773E212}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -214,7 +214,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 1 en 2015 (Tasa respuesta: 6,36%)</t>
+    <t>Población con diagnóstico de otra enfermedad 1 en 2016 (Tasa respuesta: 6,36%)</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -1097,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FE260D-3140-4F26-86D4-FE05E78D62B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEADD0C-E844-47C1-8AEA-CC420A34FAC6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2316,7 +2316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73421FB4-2670-4D7F-96F9-C152CC21204D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F1DD8-DF53-4A9F-84AF-6048A38A8D57}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3535,7 +3535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19B0F25-2577-4A0F-9CDC-586B12ADC26F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7800C2-7F0F-471F-805E-967FD56CFBCA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
